--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1505932.790051752</v>
+        <v>1610112.424502823</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103634</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.829022425353466</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -795,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494225</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73.17349761811398</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3687266494544</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136.3896895755412</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>88.01624809068157</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>41.13920556219509</v>
+        <v>136.1631093707186</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>231.4760253798836</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>92.47445699814126</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>180.1999265482499</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>278.7564234063802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376568</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>32.57570591153918</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>161.6533746177296</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>40.6225301034183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>131.2944603446585</v>
+        <v>83.06560892427764</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790647</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>82.25298866282667</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>240.3363440419449</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>23.10998325717265</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>136.2892803597732</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90.14863908058172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968309</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.038871968309</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="D2" t="n">
-        <v>1238.038871968309</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032431</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>286.6419270710064</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>286.6419270710064</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="U4" t="n">
-        <v>781.1206152631805</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="V4" t="n">
-        <v>781.1206152631805</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="W4" t="n">
-        <v>491.70344522622</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="X4" t="n">
-        <v>491.70344522622</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.70344522622</v>
+        <v>286.6419270710064</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>879.3322527250585</v>
+        <v>501.8321700886821</v>
       </c>
       <c r="U7" t="n">
-        <v>879.3322527250585</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="V7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="W7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="X7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694471</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473092</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158148</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596501</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757116</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>649.0364207491966</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>649.0364207491966</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>649.0364207491966</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122977</v>
+        <v>649.0364207491966</v>
       </c>
       <c r="W10" t="n">
-        <v>384.6303727573681</v>
+        <v>359.619250712236</v>
       </c>
       <c r="X10" t="n">
-        <v>384.6303727573681</v>
+        <v>359.619250712236</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,28 +5038,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5230,19 +5232,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N15" t="n">
         <v>1468.439756756785</v>
@@ -5373,7 +5375,7 @@
         <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>2883.5126592266</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>2714.576476298693</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>2714.576476298693</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>2566.6633827163</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>4058.044912341235</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>3803.360424135348</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>3513.943254098387</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>3285.95370320037</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>3065.16112405684</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6074,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969299</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969299</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1089.575996120531</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C31" t="n">
-        <v>920.6398131926242</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D31" t="n">
-        <v>770.5231737802884</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="E31" t="n">
-        <v>622.6100801978953</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="F31" t="n">
-        <v>475.7201326999849</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="G31" t="n">
-        <v>308.5240334148648</v>
+        <v>177.7213185270402</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>2264.108249235166</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>2009.423761029279</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1492.017040094301</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y31" t="n">
-        <v>1271.224460950771</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
@@ -6789,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828446</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.652647788936</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861029</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448694</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.6867318663</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.6867318663</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.6867318663</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.6867318663</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.6867318663</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296624</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822163</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650998</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305902</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559372</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.18490090357</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697684</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660723</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.093691762706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.301112619176</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703119</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703119</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D37" t="n">
-        <v>695.5020655703119</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>547.5889719879187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>400.6990244900084</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021787</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756786</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996073</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.972636491141</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972545</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211832</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.0424953278208</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>408.9258559154851</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>261.012762333092</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2242.251440075317</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2022.649975098258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1733.574748442456</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1478.890260236569</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1189.473090199608</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>961.4835393015907</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.6909601580605</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192565</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
@@ -7737,16 +7739,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372933</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326907</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502976</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>408.6744289523872</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7801,55 +7803,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487568</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.378057281681</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346703</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203173</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012621</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>124.5310997715146</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>211.5151132204097</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393517</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992863</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.000252501565342</v>
+        <v>57.22910392194625</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844822357</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>83.27114962944218</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>45.84813034729925</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>125.5054897610397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>44.73700564186743</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>75.37549921168713</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26326,19 +26328,19 @@
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985041</v>
@@ -26347,13 +26349,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985042</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26436,16 +26438,16 @@
         <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687959</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26457,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26497,19 +26499,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-996598.279981254</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463385</v>
+        <v>332146.4657463379</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463385</v>
+        <v>332146.4657463388</v>
       </c>
       <c r="E6" t="n">
-        <v>82673.65816036187</v>
+        <v>82673.65816036146</v>
       </c>
       <c r="F6" t="n">
-        <v>408086.1199677171</v>
+        <v>408086.1199677173</v>
       </c>
       <c r="G6" t="n">
-        <v>408086.1199677175</v>
+        <v>408086.1199677169</v>
       </c>
       <c r="H6" t="n">
+        <v>408086.119967717</v>
+      </c>
+      <c r="I6" t="n">
         <v>408086.1199677172</v>
       </c>
-      <c r="I6" t="n">
-        <v>408086.119967717</v>
-      </c>
       <c r="J6" t="n">
-        <v>190554.9175704396</v>
+        <v>190554.91757044</v>
       </c>
       <c r="K6" t="n">
-        <v>408086.1199677169</v>
+        <v>408086.1199677172</v>
       </c>
       <c r="L6" t="n">
         <v>408086.1199677173</v>
       </c>
       <c r="M6" t="n">
-        <v>323031.0920322054</v>
+        <v>323031.0920322053</v>
       </c>
       <c r="N6" t="n">
-        <v>408086.1199677172</v>
+        <v>408086.1199677174</v>
       </c>
       <c r="O6" t="n">
         <v>408086.1199677172</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677171</v>
+        <v>408086.1199677172</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.2767095024442</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>376.1013476469083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27515,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.756905814749189e-12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>75.44197540009837</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>147.8431115561584</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>246.3441520879394</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>162.9789238682204</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>178.4097437139741</v>
+        <v>83.38583990545064</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>150.4543446923782</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
@@ -27910,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>235.2778014719937</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>9.569098783192061</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>7.766574930210766</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28293,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28977,7 +28979,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29460,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3.044307409159484e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29712,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138816</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>202.2352659288688</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270672</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,31 +33034,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647489</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>397.6543049213403</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
-        <v>232.7599890885191</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366843</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>361.7519118779087</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491737</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171886</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P45" t="n">
-        <v>391.9250669264616</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340074</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>68.26085851453861</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410457</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427306</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998944</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
-        <v>98.78558167418883</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191385</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.286271753351</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315214</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028583389</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121313</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1610112.424502823</v>
+        <v>1606099.81448883</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10437581.96848356</v>
+        <v>10437581.96848357</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103634</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292601</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>136.0870494265614</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494225</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.0880274467719</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>73.17349761811398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>34.68425471822098</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>88.01624809068157</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>136.1631093707186</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>92.47445699814126</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>183.1642512458447</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>180.1999265482499</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>32.57570591153918</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>126.9263824507429</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>161.6533746177296</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>105.3305008047048</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>73.74785292486213</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.943403544595</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833367</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892427764</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>240.3363440419449</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528559</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686089</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080144</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.6419270710064</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>286.6419270710064</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4515,25 +4515,25 @@
         <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450105</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145366</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>507.4345062145366</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>507.4345062145366</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>507.4345062145366</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>507.4345062145366</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.6419270710064</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>806.3384156653772</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>441.1272163094232</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3126.409852034566</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3126.409852034566</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>3126.409852034566</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
         <v>66.5121164321834</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>501.8321700886821</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>212.7293032143256</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X7" t="n">
-        <v>212.7293032143256</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7293032143256</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158148</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.619250712236</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181838</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757116</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>649.0364207491966</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>649.0364207491966</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>649.0364207491966</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>649.0364207491966</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>359.619250712236</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>359.619250712236</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.619250712236</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2883.5126592266</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C19" t="n">
-        <v>2714.576476298693</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D19" t="n">
-        <v>2714.576476298693</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>2566.6633827163</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>2419.77343521839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.77343521839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>4058.044912341235</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>3803.360424135348</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>3513.943254098387</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>3285.95370320037</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y19" t="n">
-        <v>3065.16112405684</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400667</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121598</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998241</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998241</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138365</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703064</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270402</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6642,31 +6642,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713837</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
         <v>343.0994656851783</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>116.6691671648103</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012621</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>134.6711151870886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18.49466557218834</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>124.5310997715146</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>120.3791545843324</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631857025</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.30341755403285</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393517</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194625</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>45.84813034729925</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>902499.9148193023</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>902499.9148193023</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193025</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
@@ -26325,31 +26325,31 @@
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26475,13 +26475,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.279981254</v>
+        <v>-996598.2799812539</v>
       </c>
       <c r="C6" t="n">
         <v>332146.4657463379</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463388</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>82673.65816036146</v>
+        <v>82326.27890600453</v>
       </c>
       <c r="F6" t="n">
-        <v>408086.1199677173</v>
+        <v>407738.7407133602</v>
       </c>
       <c r="G6" t="n">
-        <v>408086.1199677169</v>
+        <v>407738.7407133603</v>
       </c>
       <c r="H6" t="n">
-        <v>408086.119967717</v>
+        <v>407738.7407133603</v>
       </c>
       <c r="I6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133601</v>
       </c>
       <c r="J6" t="n">
-        <v>190554.91757044</v>
+        <v>190207.5383160828</v>
       </c>
       <c r="K6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133602</v>
       </c>
       <c r="L6" t="n">
-        <v>408086.1199677173</v>
+        <v>407738.7407133601</v>
       </c>
       <c r="M6" t="n">
-        <v>323031.0920322053</v>
+        <v>322683.7127778482</v>
       </c>
       <c r="N6" t="n">
-        <v>408086.1199677174</v>
+        <v>407738.7407133603</v>
       </c>
       <c r="O6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133602</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677172</v>
+        <v>407738.7407133602</v>
       </c>
     </row>
   </sheetData>
@@ -26795,16 +26795,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024442</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>233.6440512519076</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.756905814749189e-12</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351654</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>75.44197540009837</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27587,10 +27587,10 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>376.2374709352325</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>162.9789238682204</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>83.38583990545064</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661466</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>235.2778014719937</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983813</v>
+        <v>24.26439296306545</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>9.569098783192061</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28979,7 +28979,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.044307409159484e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138816</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>569.57231719539</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340074</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410457</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>426.9760727509455</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1606099.81448883</v>
+        <v>1607860.344791616</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10437581.96848357</v>
+        <v>10437581.96848356</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>136.0870494265614</v>
+        <v>19.4916849718835</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247586</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.0880274467719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.45803047044426</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>34.68425471822098</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>372.5851295451229</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>93.35882079148007</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.45803047044437</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>183.1642512458447</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567503</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>126.9263824507429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>105.3305008047048</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>40.53421095546916</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.74785292486213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>186.8342257697954</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>101.943403544595</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>99.43007309478926</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>23.10998325717172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8253826161909023</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,37 +4424,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181842</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605789</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>806.3384156653772</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>448.0727170586267</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>448.0727170586267</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>441.1272163094232</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318774</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338601</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.09676419033</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,13 +4819,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>751.9508228902781</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779424</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955492</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976389</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075823</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400721</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400721</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277364</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277364</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
         <v>235.5284942057738</v>
@@ -5430,58 +5430,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>702.4944101284095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.935454102179</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.1428749586493</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>216.8470138298251</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
         <v>697.5276345711974</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1600804794585</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7083,13 +7083,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>94.65038286230612</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648103</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>152.3434691354489</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18.49466557218834</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>120.3791545843324</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>65.30341755403262</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.30341755403285</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>145.1398665102887</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.469330230033</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
@@ -26343,10 +26343,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985041</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812539</v>
+        <v>-996598.2799812541</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463379</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463385</v>
       </c>
       <c r="E6" t="n">
-        <v>82326.27890600453</v>
+        <v>82638.92023492622</v>
       </c>
       <c r="F6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="G6" t="n">
-        <v>407738.7407133603</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="H6" t="n">
-        <v>407738.7407133603</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="I6" t="n">
-        <v>407738.7407133601</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="J6" t="n">
-        <v>190207.5383160828</v>
+        <v>190520.179645004</v>
       </c>
       <c r="K6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="L6" t="n">
-        <v>407738.7407133601</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="M6" t="n">
-        <v>322683.7127778482</v>
+        <v>322996.3541067698</v>
       </c>
       <c r="N6" t="n">
-        <v>407738.7407133603</v>
+        <v>408051.3820422816</v>
       </c>
       <c r="O6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="P6" t="n">
-        <v>407738.7407133602</v>
+        <v>408051.3820422814</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>233.6440512519076</v>
+        <v>350.2394157065855</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.595168441781425e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351654</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661467</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>376.2374709352325</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>13.65280911093072</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>72.66698746754815</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.0649678661466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>186.5668494326243</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>362.4386851003786</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.26439296306545</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
